--- a/Team-Data/2014-15/11-25-2014-15.xlsx
+++ b/Team-Data/2014-15/11-25-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.545</v>
       </c>
       <c r="H2" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I2" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J2" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="L2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.353</v>
+        <v>0.359</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>17.8</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>23.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R2" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="U2" t="n">
-        <v>23.8</v>
+        <v>24.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="n">
         <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>4</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="AN2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO2" t="n">
         <v>14</v>
       </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
         <v>27</v>
@@ -795,31 +862,31 @@
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>12</v>
       </c>
       <c r="AY2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC2" t="n">
         <v>16</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>15</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>9</v>
@@ -965,25 +1032,25 @@
         <v>29</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>15</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
       <c r="AV3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW3" t="n">
         <v>10</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>8</v>
       </c>
       <c r="AX3" t="n">
         <v>22</v>
@@ -992,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-1</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1117,28 +1184,28 @@
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>13</v>
@@ -1150,37 +1217,37 @@
         <v>3</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT4" t="n">
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1314,16 +1381,16 @@
         <v>25</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>24</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1338,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="AY5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
         <v>26</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.643</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1424,130 +1491,130 @@
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O6" t="n">
-        <v>19.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.748</v>
+        <v>0.736</v>
       </c>
       <c r="R6" t="n">
         <v>9.9</v>
       </c>
       <c r="S6" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="T6" t="n">
-        <v>41.9</v>
+        <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>7</v>
       </c>
       <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
         <v>12</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK6" t="n">
         <v>11</v>
       </c>
-      <c r="AH6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14</v>
-      </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>20</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
         <v>7</v>
       </c>
       <c r="BB6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1654,28 +1721,28 @@
         <v>1.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>18</v>
-      </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
         <v>10</v>
@@ -1684,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
@@ -1693,16 +1760,16 @@
         <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS7" t="n">
         <v>19</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1714,22 +1781,22 @@
         <v>16</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1758,106 +1825,106 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>84.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.489</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R8" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.1</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
       <c r="V8" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.9</v>
+        <v>109.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
       </c>
       <c r="AI8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK8" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2</v>
       </c>
       <c r="AL8" t="n">
         <v>4</v>
@@ -1866,28 +1933,28 @@
         <v>2</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.441</v>
+        <v>0.436</v>
       </c>
       <c r="L9" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M9" t="n">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.333</v>
       </c>
       <c r="O9" t="n">
         <v>19.5</v>
@@ -1979,109 +2046,109 @@
         <v>26.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S9" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T9" t="n">
         <v>44.2</v>
       </c>
       <c r="U9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
         <v>13.7</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AA9" t="n">
         <v>22.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>8</v>
       </c>
       <c r="AM9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
         <v>7</v>
       </c>
-      <c r="AP9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>5</v>
-      </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV9" t="n">
         <v>9</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2090,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -2122,103 +2189,103 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.214</v>
+        <v>0.231</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J10" t="n">
-        <v>83.3</v>
+        <v>83.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.413</v>
+        <v>0.41</v>
       </c>
       <c r="L10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M10" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.679</v>
+        <v>0.695</v>
       </c>
       <c r="R10" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.7</v>
+        <v>45.4</v>
       </c>
       <c r="U10" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>91.7</v>
+        <v>92.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.4</v>
+        <v>-4.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
@@ -2227,28 +2294,28 @@
         <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>29</v>
@@ -2263,10 +2330,10 @@
         <v>20</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>20</v>
@@ -2275,7 +2342,7 @@
         <v>28</v>
       </c>
       <c r="BC10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -2304,88 +2371,88 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.846</v>
+        <v>0.833</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>39.8</v>
+        <v>39.5</v>
       </c>
       <c r="J11" t="n">
-        <v>80.90000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.491</v>
+        <v>0.485</v>
       </c>
       <c r="L11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.385</v>
+        <v>0.377</v>
       </c>
       <c r="O11" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P11" t="n">
         <v>22.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.786</v>
+        <v>0.797</v>
       </c>
       <c r="R11" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S11" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="T11" t="n">
         <v>44.5</v>
       </c>
       <c r="U11" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="V11" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="W11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>3.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>107.1</v>
+        <v>106.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.6</v>
+        <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2397,13 +2464,13 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
@@ -2412,16 +2479,16 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR11" t="n">
         <v>28</v>
@@ -2430,31 +2497,31 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX11" t="n">
         <v>2</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA11" t="n">
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -2486,94 +2553,94 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.769</v>
+        <v>0.786</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="J12" t="n">
-        <v>77.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L12" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="M12" t="n">
-        <v>34.8</v>
+        <v>34.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="V12" t="n">
         <v>18.5</v>
       </c>
-      <c r="P12" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="R12" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>18.8</v>
-      </c>
       <c r="W12" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.8</v>
+        <v>96.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>17</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>17</v>
       </c>
       <c r="AT12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>26</v>
@@ -2624,19 +2691,19 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB12" t="n">
         <v>21</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>23</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>-2.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
@@ -2758,7 +2825,7 @@
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,16 +2837,16 @@
         <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
         <v>24</v>
@@ -2806,16 +2873,16 @@
         <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>7</v>
       </c>
       <c r="BA13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>2.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -2958,22 +3025,22 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>30</v>
       </c>
       <c r="AS14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT14" t="n">
         <v>29</v>
@@ -2985,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX14" t="n">
         <v>15</v>
@@ -3000,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3032,64 +3099,64 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>0.231</v>
+        <v>0.214</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>37.8</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M15" t="n">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.289</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>21.6</v>
       </c>
       <c r="P15" t="n">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S15" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="T15" t="n">
-        <v>42</v>
+        <v>41.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.6</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
         <v>3.9</v>
@@ -3098,40 +3165,40 @@
         <v>3.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.9</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>-9</v>
+        <v>-9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3149,19 +3216,19 @@
         <v>3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
@@ -3170,22 +3237,22 @@
         <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3307,7 +3374,7 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>16</v>
@@ -3316,7 +3383,7 @@
         <v>13</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
@@ -3331,10 +3398,10 @@
         <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
         <v>16</v>
@@ -3349,22 +3416,22 @@
         <v>7</v>
       </c>
       <c r="AW16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY16" t="n">
         <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3396,91 +3463,91 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>8</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.533</v>
+        <v>0.571</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J17" t="n">
-        <v>74.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.464</v>
+        <v>0.47</v>
       </c>
       <c r="L17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M17" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.391</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P17" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R17" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="U17" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X17" t="n">
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
         <v>97</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
         <v>14</v>
@@ -3501,55 +3568,55 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3578,58 +3645,58 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.533</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.59999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.317</v>
+        <v>0.305</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="P18" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.759</v>
       </c>
       <c r="R18" t="n">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="S18" t="n">
         <v>30.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.6</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V18" t="n">
         <v>16.6</v>
@@ -3638,7 +3705,7 @@
         <v>9.4</v>
       </c>
       <c r="X18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y18" t="n">
         <v>5.1</v>
@@ -3647,64 +3714,64 @@
         <v>23.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.8</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-2.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP18" t="n">
         <v>23</v>
       </c>
-      <c r="AP18" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AS18" t="n">
         <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>12</v>
@@ -3716,19 +3783,19 @@
         <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB18" t="n">
         <v>23</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
@@ -3856,28 +3923,28 @@
         <v>11</v>
       </c>
       <c r="AJ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
         <v>28</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3892,28 +3959,28 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>14</v>
       </c>
       <c r="BC19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -3945,103 +4012,103 @@
         <v>12</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.583</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>39.8</v>
       </c>
       <c r="J20" t="n">
-        <v>84.5</v>
+        <v>86.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M20" t="n">
         <v>20.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
-        <v>17.5</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.9</v>
       </c>
       <c r="T20" t="n">
-        <v>40.7</v>
+        <v>42.5</v>
       </c>
       <c r="U20" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="V20" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.9</v>
+        <v>103.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -4053,22 +4120,22 @@
         <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>15</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>9</v>
@@ -4077,25 +4144,25 @@
         <v>1</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BC20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4220,13 +4287,13 @@
         <v>18</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
@@ -4244,7 +4311,7 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4256,19 +4323,19 @@
         <v>14</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA21" t="n">
         <v>27</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4396,7 +4463,7 @@
         <v>29</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>29</v>
@@ -4408,25 +4475,25 @@
         <v>28</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO22" t="n">
         <v>24</v>
       </c>
       <c r="AP22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>10</v>
@@ -4444,10 +4511,10 @@
         <v>28</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
@@ -4459,7 +4526,7 @@
         <v>30</v>
       </c>
       <c r="BC22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -4488,115 +4555,115 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>36.9</v>
       </c>
       <c r="J23" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P23" t="n">
         <v>20.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
       </c>
       <c r="AE23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
         <v>17</v>
       </c>
-      <c r="AF23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>16</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
         <v>28</v>
@@ -4605,16 +4672,16 @@
         <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4626,22 +4693,22 @@
         <v>25</v>
       </c>
       <c r="AX23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY23" t="n">
         <v>30</v>
       </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-16</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,13 +4833,13 @@
         <v>28</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="n">
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4784,7 +4851,7 @@
         <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,10 +4866,10 @@
         <v>27</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW24" t="n">
         <v>1</v>
@@ -4817,7 +4884,7 @@
         <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>7</v>
       </c>
       <c r="AF25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4948,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
@@ -4957,10 +5024,10 @@
         <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4975,28 +5042,28 @@
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU25" t="n">
         <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX25" t="n">
         <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>9.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
         <v>2</v>
@@ -5166,19 +5233,19 @@
         <v>5</v>
       </c>
       <c r="AV26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
       <c r="H27" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.453</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
         <v>4.7</v>
@@ -5246,64 +5313,64 @@
         <v>14.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.317</v>
+        <v>0.314</v>
       </c>
       <c r="O27" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="P27" t="n">
-        <v>32.9</v>
+        <v>33.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="T27" t="n">
-        <v>45.8</v>
+        <v>46.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="V27" t="n">
-        <v>15.6</v>
+        <v>16.1</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y27" t="n">
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="AB27" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AD27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG27" t="n">
         <v>10</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>9</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5315,7 +5382,7 @@
         <v>27</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>30</v>
@@ -5336,7 +5403,7 @@
         <v>2</v>
       </c>
       <c r="AR27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS27" t="n">
         <v>4</v>
@@ -5351,25 +5418,25 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
@@ -5416,76 +5483,76 @@
         <v>36.2</v>
       </c>
       <c r="J28" t="n">
-        <v>80.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.447</v>
+        <v>0.452</v>
       </c>
       <c r="L28" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.35</v>
       </c>
       <c r="O28" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R28" t="n">
         <v>9.4</v>
       </c>
       <c r="S28" t="n">
-        <v>35.3</v>
+        <v>34.8</v>
       </c>
       <c r="T28" t="n">
-        <v>44.8</v>
+        <v>44.2</v>
       </c>
       <c r="U28" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V28" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>17</v>
@@ -5494,61 +5561,61 @@
         <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO28" t="n">
         <v>20</v>
       </c>
-      <c r="AL28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>19</v>
-      </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>5</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>4</v>
       </c>
       <c r="BA28" t="n">
         <v>29</v>
       </c>
       <c r="BB28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>11.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>1</v>
@@ -5673,22 +5740,22 @@
         <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>2</v>
@@ -5721,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
         <v>19</v>
@@ -5730,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="BB29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC29" t="n">
         <v>1</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5840,13 +5907,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>22</v>
@@ -5861,7 +5928,7 @@
         <v>28</v>
       </c>
       <c r="AK30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>20</v>
@@ -5873,19 +5940,19 @@
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>15</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>16</v>
-      </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>21</v>
@@ -5894,16 +5961,16 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
         <v>3</v>
@@ -5912,10 +5979,10 @@
         <v>26</v>
       </c>
       <c r="BB30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
@@ -5944,151 +6011,151 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J31" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L31" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M31" t="n">
-        <v>15.5</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.368</v>
+        <v>0.359</v>
       </c>
       <c r="O31" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P31" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U31" t="n">
         <v>24.7</v>
       </c>
       <c r="V31" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA31" t="n">
         <v>22.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>7</v>
       </c>
       <c r="AF31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG31" t="n">
         <v>6</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>7</v>
       </c>
-      <c r="AH31" t="n">
-        <v>8</v>
-      </c>
       <c r="AI31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>3</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
         <v>5</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-25-2014-15</t>
+          <t>2014-11-25</t>
         </is>
       </c>
     </row>
